--- a/Week 10/Week 10 plan.xlsx
+++ b/Week 10/Week 10 plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56313B2-5F11-4395-AFB2-89C8E3F0B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF88933-EDF3-423A-84AC-FEB0F3927896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Stacks Queues, Heaps,Greedy</t>
   </si>
@@ -179,6 +179,15 @@
       </rPr>
       <t xml:space="preserve">  (Check gfg solution not leetcode if u dont get)</t>
     </r>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
@@ -527,10 +536,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O1004"/>
+  <dimension ref="A1:O1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -542,7 +551,7 @@
     <col min="7" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,200 +559,283 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
@@ -762,6 +854,7 @@
       <c r="O41" s="14"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -774,11 +867,10 @@
       <c r="K42" s="13"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
-      <c r="N42" s="14"/>
+      <c r="N42" s="13"/>
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -791,7 +883,7 @@
       <c r="K43" s="13"/>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
+      <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -807,14 +899,14 @@
       <c r="K44" s="13"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -823,14 +915,14 @@
       <c r="K45" s="13"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
+      <c r="N45" s="14"/>
       <c r="O45" s="13"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -839,7 +931,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="14"/>
+      <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -940,7 +1032,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -955,7 +1047,7 @@
       <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -971,7 +1063,8 @@
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="13"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -987,7 +1080,6 @@
       <c r="O55" s="13"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
       <c r="B56" s="11"/>
       <c r="C56" s="13"/>
       <c r="D56" s="12"/>
@@ -1073,7 +1165,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="13"/>
@@ -1180,7 +1272,7 @@
       <c r="O67" s="13"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="11"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="13"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -1228,7 +1320,7 @@
       <c r="O70" s="13"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="12"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="13"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -1245,29 +1337,29 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="12"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
       <c r="M72" s="12"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="11"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="15"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
@@ -1295,7 +1387,7 @@
       <c r="B75" s="16"/>
       <c r="C75" s="15"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="12"/>
@@ -1372,20 +1464,9 @@
       <c r="O79" s="15"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="16"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
+      <c r="D80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="M80" s="17"/>
     </row>
     <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="17"/>
@@ -6001,11 +6082,6 @@
       <c r="D1003" s="17"/>
       <c r="H1003" s="17"/>
       <c r="M1003" s="17"/>
-    </row>
-    <row r="1004" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D1004" s="17"/>
-      <c r="H1004" s="17"/>
-      <c r="M1004" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6023,30 +6099,29 @@
     <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>